--- a/fswd course progress.xlsx
+++ b/fswd course progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Development PW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web-Development-PW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8985B5BA-C4B8-4353-A46A-E18D46C9AF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BD7F92-06CF-42D1-8045-B2F7234454E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2FB046B5-382E-452D-AC48-B9B69504A974}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="148">
   <si>
     <t>Full Stack Web Development (Sigma Batch) PW Skills</t>
   </si>
@@ -457,6 +457,18 @@
   </si>
   <si>
     <t>HOF and Functional Programming</t>
+  </si>
+  <si>
+    <t>Destructuring</t>
+  </si>
+  <si>
+    <t>Destructuring, Spread and Rest</t>
+  </si>
+  <si>
+    <t>Error Handling and Prototypes</t>
+  </si>
+  <si>
+    <t>Try and Catch</t>
   </si>
 </sst>
 </file>
@@ -844,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297B74DC-E80E-46A4-B82C-1EA493A4B4C5}">
-  <dimension ref="A3:J156"/>
+  <dimension ref="A3:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+      <selection activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1876,6 +1888,40 @@
       <c r="C156" s="3" t="s">
         <v>142</v>
       </c>
+      <c r="D156" s="3">
+        <v>1</v>
+      </c>
+      <c r="E156" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>44998</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D158" s="3">
+        <v>1</v>
+      </c>
+      <c r="E158" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>45005</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/fswd course progress.xlsx
+++ b/fswd course progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web-Development-PW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BD7F92-06CF-42D1-8045-B2F7234454E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB883272-7005-4718-82FD-5896BD74E83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2FB046B5-382E-452D-AC48-B9B69504A974}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="150">
   <si>
     <t>Full Stack Web Development (Sigma Batch) PW Skills</t>
   </si>
@@ -469,6 +469,12 @@
   </si>
   <si>
     <t>Try and Catch</t>
+  </si>
+  <si>
+    <t>Use of Try Catch in Real World Application</t>
+  </si>
+  <si>
+    <t>Defining a Class</t>
   </si>
 </sst>
 </file>
@@ -856,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297B74DC-E80E-46A4-B82C-1EA493A4B4C5}">
-  <dimension ref="A3:J160"/>
+  <dimension ref="A3:J162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1923,6 +1929,16 @@
         <v>147</v>
       </c>
     </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C161" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C162" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fswd course progress.xlsx
+++ b/fswd course progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web-Development-PW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB883272-7005-4718-82FD-5896BD74E83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A330F4-9615-47A6-9713-38FC031B9AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2FB046B5-382E-452D-AC48-B9B69504A974}"/>
   </bookViews>
@@ -474,7 +474,7 @@
     <t>Use of Try Catch in Real World Application</t>
   </si>
   <si>
-    <t>Defining a Class</t>
+    <t>Defining a Class, Class Instantiation</t>
   </si>
 </sst>
 </file>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297B74DC-E80E-46A4-B82C-1EA493A4B4C5}">
   <dimension ref="A3:J162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
